--- a/wzrv/expdata/2006.xlsx
+++ b/wzrv/expdata/2006.xlsx
@@ -83,47 +83,20 @@
     <t>target</t>
   </si>
   <si>
-    <r>
-      <t>D0(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>D0(mu)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +407,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2006.xlsx
+++ b/wzrv/expdata/2006.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E082EC-467F-1A4F-90DB-3C733973D435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>cms</t>
   </si>
@@ -56,9 +66,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -84,19 +91,48 @@
   </si>
   <si>
     <t>D0(mu)</t>
+  </si>
+  <si>
+    <t>syst0_c</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
+  </si>
+  <si>
+    <t>syst2_c</t>
+  </si>
+  <si>
+    <t>syst3_c</t>
+  </si>
+  <si>
+    <t>syst4_c</t>
+  </si>
+  <si>
+    <t>syst5_c</t>
+  </si>
+  <si>
+    <t>syst6_c</t>
+  </si>
+  <si>
+    <t>syst_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,10 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,24 +442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="16" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -432,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -456,21 +495,42 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -488,7 +548,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
         <v>2.13</v>
@@ -512,18 +572,39 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
+      <c r="Q2">
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="R2">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="S2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="U2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="V2">
+        <v>1.07E-3</v>
+      </c>
+      <c r="W2">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -541,7 +622,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
         <v>5.46</v>
@@ -565,18 +646,39 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
+      <c r="Q3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="R3">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="S3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="T3">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="U3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V3">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="W3">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -594,7 +696,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
         <v>9.11</v>
@@ -618,18 +720,39 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
+      <c r="Q4">
+        <v>2.9E-4</v>
+      </c>
+      <c r="R4">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="S4">
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="T4">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="U4">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="V4">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="W4">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -647,7 +770,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1">
         <v>12.41</v>
@@ -671,18 +794,39 @@
         <v>1.9E-3</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
+      <c r="Q5">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="R5">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="S5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="T5">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="U5">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="V5">
+        <v>1.65E-3</v>
+      </c>
+      <c r="W5">
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -700,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1">
         <v>14.15</v>
@@ -724,18 +868,39 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>15</v>
+      <c r="Q6">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="R6">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="S6">
+        <v>1.2E-4</v>
+      </c>
+      <c r="T6">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="U6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="V6">
+        <v>1.34E-3</v>
+      </c>
+      <c r="W6">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -753,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
         <v>16.13</v>
@@ -777,18 +942,39 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>15</v>
+      <c r="Q7">
+        <v>5.0999999999999993E-4</v>
+      </c>
+      <c r="R7">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="S7">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="T7">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="U7">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="V7">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="W7">
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -806,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
         <v>16.62</v>
@@ -830,18 +1016,39 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>15</v>
+      <c r="Q8">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="R8">
+        <v>5.8E-4</v>
+      </c>
+      <c r="S8">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="T8">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="U8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="V8">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="W8">
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -859,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
         <v>15.47</v>
@@ -883,18 +1090,39 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>15</v>
+      <c r="Q9">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="R9">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="S9">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="T9">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="U9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V9">
+        <v>1.83E-3</v>
+      </c>
+      <c r="W9">
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -912,7 +1140,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1">
         <v>11.06</v>
@@ -936,18 +1164,39 @@
         <v>3.3E-3</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>15</v>
+      <c r="Q10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R10">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="S10">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="T10">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="U10">
+        <v>3.1E-4</v>
+      </c>
+      <c r="V10">
+        <v>3.1199999999999999E-3</v>
+      </c>
+      <c r="W10">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -965,7 +1214,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1">
         <v>7.64</v>
@@ -989,10 +1238,31 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>15</v>
+      <c r="Q11">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="R11">
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="S11">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="T11">
+        <v>1.49E-3</v>
+      </c>
+      <c r="U11">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="V11">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="W11">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/2006.xlsx
+++ b/wzrv/expdata/2006.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E082EC-467F-1A4F-90DB-3C733973D435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CC78F-6BF2-BD45-9682-2B5441FAF5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,22 +99,22 @@
     <t>syst1_c</t>
   </si>
   <si>
-    <t>syst2_c</t>
-  </si>
-  <si>
-    <t>syst3_c</t>
-  </si>
-  <si>
     <t>syst4_c</t>
   </si>
   <si>
-    <t>syst5_c</t>
-  </si>
-  <si>
     <t>syst6_c</t>
   </si>
   <si>
     <t>syst_tot</t>
+  </si>
+  <si>
+    <t>syst2_u</t>
+  </si>
+  <si>
+    <t>syst3_u</t>
+  </si>
+  <si>
+    <t>syst5_u</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -510,19 +510,19 @@
         <v>20</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">

--- a/wzrv/expdata/2006.xlsx
+++ b/wzrv/expdata/2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CC78F-6BF2-BD45-9682-2B5441FAF5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B36B98B-136D-1545-B9D9-6C342D50F3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>cms</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>syst5_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -443,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="17" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -477,55 +480,58 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -547,59 +553,62 @@
       <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>2.13</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.17</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.11</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L11" si="0">I2/100</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M11" si="0">J2/100</f>
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M11" si="1">J2/100</f>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N11" si="1">K2/100</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N11" si="2">K2/100</f>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O11" si="2">L2/100</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.2E-4</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1.07E-3</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -621,59 +630,62 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>5.46</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.18</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.13</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f t="shared" si="2"/>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1.2899999999999999E-3</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -695,59 +707,62 @@
       <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>9.11</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.18</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.16</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>9.11E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.9E-4</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1.5100000000000001E-3</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -769,59 +784,62 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>12.41</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.18</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.19</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>0.1241</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="2"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.2E-4</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1.65E-3</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -843,59 +861,62 @@
       <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>14.15</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.19</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.17</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>0.14150000000000001</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="1"/>
         <v>1.9E-3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>8.8999999999999995E-4</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1.2E-4</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1.34E-3</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -917,59 +938,62 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>16.13</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.16</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.27</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>0.1613</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <f t="shared" si="2"/>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5.0999999999999993E-4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -991,59 +1015,62 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>16.62</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.21</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>0.16620000000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5.8E-4</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1065,59 +1092,62 @@
       <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>15.47</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.16</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.21</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>0.1547</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1.83E-3</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1139,59 +1169,62 @@
       <c r="G10" s="1">
         <v>25</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>11.06</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.7</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.33</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>0.1106</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <f t="shared" si="2"/>
         <v>3.3E-3</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3.1E-4</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>3.1199999999999999E-3</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1213,55 +1246,58 @@
       <c r="G11" s="1">
         <v>25</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>7.64</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>1.07</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.42</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>1.0700000000000001E-2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <f t="shared" si="2"/>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>8.9999999999999992E-5</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1.49E-3</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3.8500000000000001E-3</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>

--- a/wzrv/expdata/2006.xlsx
+++ b/wzrv/expdata/2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B36B98B-136D-1545-B9D9-6C342D50F3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ABC939-E4BE-904D-9A5B-3EFC69E7864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +554,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -708,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -785,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -1016,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -1093,7 +1093,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1170,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -1247,7 +1247,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>

--- a/wzrv/expdata/2006.xlsx
+++ b/wzrv/expdata/2006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ABC939-E4BE-904D-9A5B-3EFC69E7864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB4339-4982-D740-BFA6-FCF403E83B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +554,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -631,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -708,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -785,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -939,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -1016,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -1093,7 +1093,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1170,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -1247,7 +1247,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>

--- a/wzrv/expdata/2006.xlsx
+++ b/wzrv/expdata/2006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB4339-4982-D740-BFA6-FCF403E83B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A31CDD-A0DC-824F-B8AB-63D72471A5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>cms</t>
   </si>
@@ -115,16 +115,13 @@
   </si>
   <si>
     <t>syst5_u</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -133,6 +130,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,12 +163,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -446,92 +454,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="17" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -553,62 +558,59 @@
       <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="1">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="1">
+        <v>2.13</v>
+      </c>
       <c r="J2" s="1">
-        <v>2.13</v>
+        <v>0.17</v>
       </c>
       <c r="K2" s="1">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="L2" s="1">
-        <v>0.11</v>
+        <f t="shared" ref="L2:L11" si="0">I2/100</f>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M11" si="0">J2/100</f>
-        <v>2.1299999999999999E-2</v>
+        <f t="shared" ref="M2:M11" si="1">J2/100</f>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ref="N2:N11" si="1">K2/100</f>
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" ref="O2:O11" si="2">L2/100</f>
+        <f t="shared" ref="N2:N11" si="2">K2/100</f>
         <v>1.1000000000000001E-3</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q2">
+        <v>7.0000000000000007E-5</v>
+      </c>
       <c r="R2">
-        <v>7.0000000000000007E-5</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="S2">
-        <v>1.8000000000000001E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="T2">
-        <v>1.0000000000000001E-5</v>
+        <v>1.2E-4</v>
       </c>
       <c r="U2">
-        <v>1.2E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="V2">
-        <v>6.0000000000000002E-5</v>
+        <v>1.07E-3</v>
       </c>
       <c r="W2">
-        <v>1.07E-3</v>
-      </c>
-      <c r="X2">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -630,62 +632,59 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="H3" s="1">
-        <v>59</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I3" s="1">
+        <v>5.46</v>
+      </c>
       <c r="J3" s="1">
-        <v>5.46</v>
+        <v>0.18</v>
       </c>
       <c r="K3" s="1">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="L3" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="O3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="2"/>
         <v>1.2999999999999999E-3</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q3">
+        <v>5.0000000000000002E-5</v>
+      </c>
       <c r="R3">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="S3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="T3">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="U3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="S3">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="T3">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="U3">
-        <v>8.0000000000000007E-5</v>
-      </c>
       <c r="V3">
-        <v>5.0000000000000002E-5</v>
+        <v>1.2899999999999999E-3</v>
       </c>
       <c r="W3">
-        <v>1.2899999999999999E-3</v>
-      </c>
-      <c r="X3">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -707,62 +706,59 @@
       <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="H4" s="1">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="1">
+        <v>9.11</v>
+      </c>
       <c r="J4" s="1">
-        <v>9.11</v>
+        <v>0.18</v>
       </c>
       <c r="K4" s="1">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="L4" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>9.11E-2</v>
       </c>
-      <c r="N4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="O4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q4">
+        <v>2.9E-4</v>
+      </c>
       <c r="R4">
-        <v>2.9E-4</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="S4">
-        <v>4.6000000000000001E-4</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="T4">
-        <v>7.0000000000000007E-5</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="U4">
-        <v>1.2999999999999999E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="V4">
-        <v>4.0000000000000003E-5</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="W4">
-        <v>1.5100000000000001E-3</v>
-      </c>
-      <c r="X4">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -784,62 +780,59 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="1">
-        <v>59</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="1">
+        <v>12.41</v>
+      </c>
       <c r="J5" s="1">
-        <v>12.41</v>
+        <v>0.18</v>
       </c>
       <c r="K5" s="1">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="L5" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>0.1241</v>
       </c>
-      <c r="N5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
         <v>1.9E-3</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q5">
+        <v>4.8999999999999998E-4</v>
+      </c>
       <c r="R5">
-        <v>4.8999999999999998E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="S5">
-        <v>6.4999999999999997E-4</v>
+        <v>1.2E-4</v>
       </c>
       <c r="T5">
-        <v>1.2E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="U5">
-        <v>3.8999999999999999E-4</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="V5">
-        <v>3.0000000000000001E-5</v>
+        <v>1.65E-3</v>
       </c>
       <c r="W5">
-        <v>1.65E-3</v>
-      </c>
-      <c r="X5">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -861,62 +854,59 @@
       <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
-        <v>59</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I6" s="1">
+        <v>14.15</v>
+      </c>
       <c r="J6" s="1">
-        <v>14.15</v>
+        <v>0.19</v>
       </c>
       <c r="K6" s="1">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="L6" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>0.14150000000000001</v>
       </c>
-      <c r="N6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q6">
+        <v>4.6999999999999999E-4</v>
+      </c>
       <c r="R6">
-        <v>4.6999999999999999E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="S6">
-        <v>8.8999999999999995E-4</v>
+        <v>1.2E-4</v>
       </c>
       <c r="T6">
-        <v>1.2E-4</v>
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="U6">
-        <v>4.6000000000000001E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="V6">
-        <v>4.0000000000000003E-5</v>
+        <v>1.34E-3</v>
       </c>
       <c r="W6">
-        <v>1.34E-3</v>
-      </c>
-      <c r="X6">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -938,62 +928,59 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
-        <v>59</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I7" s="1">
+        <v>16.13</v>
+      </c>
       <c r="J7" s="1">
-        <v>16.13</v>
+        <v>0.16</v>
       </c>
       <c r="K7" s="1">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="L7" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>0.1613</v>
       </c>
-      <c r="N7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
         <v>2.7000000000000001E-3</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q7">
+        <v>5.0999999999999993E-4</v>
+      </c>
       <c r="R7">
-        <v>5.0999999999999993E-4</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="S7">
-        <v>7.7999999999999999E-4</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="T7">
-        <v>1.3999999999999999E-4</v>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="U7">
-        <v>5.2999999999999998E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V7">
-        <v>2.0000000000000002E-5</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="W7">
-        <v>2.5100000000000001E-3</v>
-      </c>
-      <c r="X7">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1015,62 +1002,59 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="H8" s="1">
-        <v>59</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I8" s="1">
+        <v>16.62</v>
+      </c>
       <c r="J8" s="1">
-        <v>16.62</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="L8" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>0.16620000000000001</v>
       </c>
-      <c r="N8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q8">
+        <v>5.6999999999999998E-4</v>
+      </c>
       <c r="R8">
-        <v>5.6999999999999998E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="S8">
-        <v>5.8E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="T8">
-        <v>6.0000000000000002E-5</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="U8">
-        <v>4.2000000000000002E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="V8">
-        <v>2.0000000000000002E-5</v>
+        <v>1.8699999999999999E-3</v>
       </c>
       <c r="W8">
-        <v>1.8699999999999999E-3</v>
-      </c>
-      <c r="X8">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1092,62 +1076,59 @@
       <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="H9" s="1">
-        <v>59</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I9" s="1">
+        <v>15.47</v>
+      </c>
       <c r="J9" s="1">
-        <v>15.47</v>
+        <v>0.16</v>
       </c>
       <c r="K9" s="1">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="L9" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>0.1547</v>
       </c>
-      <c r="N9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q9">
+        <v>5.5000000000000003E-4</v>
+      </c>
       <c r="R9">
-        <v>5.5000000000000003E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="S9">
-        <v>4.8000000000000001E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="T9">
-        <v>1.2999999999999999E-4</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="U9">
-        <v>7.2999999999999996E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="V9">
-        <v>5.0000000000000002E-5</v>
+        <v>1.83E-3</v>
       </c>
       <c r="W9">
-        <v>1.83E-3</v>
-      </c>
-      <c r="X9">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1169,62 +1150,59 @@
       <c r="G10" s="1">
         <v>25</v>
       </c>
-      <c r="H10" s="1">
-        <v>59</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I10" s="1">
+        <v>11.06</v>
+      </c>
       <c r="J10" s="1">
-        <v>11.06</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="1">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="L10" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>0.1106</v>
       </c>
-      <c r="N10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>6.9999999999999993E-3</v>
       </c>
-      <c r="O10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>3.3E-3</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q10">
+        <v>2.9999999999999997E-4</v>
+      </c>
       <c r="R10">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="S10">
-        <v>5.0000000000000002E-5</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="T10">
-        <v>4.6999999999999999E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="U10">
-        <v>8.1999999999999998E-4</v>
+        <v>3.1E-4</v>
       </c>
       <c r="V10">
-        <v>3.1E-4</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="W10">
-        <v>3.1199999999999999E-3</v>
-      </c>
-      <c r="X10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1246,58 +1224,55 @@
       <c r="G11" s="1">
         <v>25</v>
       </c>
-      <c r="H11" s="1">
-        <v>59</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I11" s="1">
+        <v>7.64</v>
+      </c>
       <c r="J11" s="1">
-        <v>7.64</v>
+        <v>1.07</v>
       </c>
       <c r="K11" s="1">
-        <v>1.07</v>
+        <v>0.42</v>
       </c>
       <c r="L11" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>1.0700000000000001E-2</v>
       </c>
-      <c r="O11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
         <v>4.1999999999999997E-3</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="P11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q11">
+        <v>3.6999999999999999E-4</v>
+      </c>
       <c r="R11">
-        <v>3.6999999999999999E-4</v>
+        <v>8.9999999999999992E-5</v>
       </c>
       <c r="S11">
-        <v>8.9999999999999992E-5</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="T11">
-        <v>4.8000000000000001E-4</v>
+        <v>1.49E-3</v>
       </c>
       <c r="U11">
-        <v>1.49E-3</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="V11">
-        <v>4.8999999999999998E-4</v>
+        <v>3.8500000000000001E-3</v>
       </c>
       <c r="W11">
-        <v>3.8500000000000001E-3</v>
-      </c>
-      <c r="X11">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
